--- a/filtroVisualRetornandoDados.xlsx
+++ b/filtroVisualRetornandoDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adonisss\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E47012-7485-4EF9-AD6D-EE5A2A7B374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D20132-F30A-4994-9D7D-ADA993BEE771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7CAB9E97-D61E-4DA0-97B5-0D2E2B02D529}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>amanda</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
     <t>dezembro</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>=SE($N$1="";"";ÉNÚM(LOCALIZAR($N$1;ÍNDICE($A2:$D13;;CORRESP($M$1;$A$1:$D$1;0)))))</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -255,11 +255,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D10-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -287,7 +287,7 @@
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000020C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -326,8 +326,8 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>236220</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>53340</xdr:rowOff>
         </xdr:from>
@@ -345,7 +345,7 @@
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000050C0000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000050C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -684,7 +684,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,34 +698,34 @@
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -742,19 +742,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="3">
-        <f t="array" ref="G2">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),1),"")</f>
+        <f t="array" ref="G2">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),1),""))</f>
         <v>1</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f t="array" ref="H2">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),2),"")</f>
+        <f t="array" ref="H2">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),2),""))</f>
         <v>janeiro</v>
       </c>
       <c r="I2" s="8">
-        <f t="array" ref="I2">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),3),"")</f>
+        <f t="array" ref="I2">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),3),""))</f>
         <v>658</v>
       </c>
       <c r="J2" s="3" t="str">
-        <f t="array" ref="J2">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),4),"")</f>
+        <f t="array" ref="J2">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A1)),4),""))</f>
         <v>carlos</v>
       </c>
     </row>
@@ -772,20 +772,20 @@
         <v>12</v>
       </c>
       <c r="G3" s="3">
-        <f t="array" ref="G3">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),1),"")</f>
-        <v>6</v>
+        <f t="array" ref="G3">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),1),""))</f>
+        <v>2</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="array" ref="H3">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),2),"")</f>
-        <v>junho</v>
+        <f t="array" ref="H3">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),2),""))</f>
+        <v>fevereiro</v>
       </c>
       <c r="I3" s="8">
-        <f t="array" ref="I3">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),3),"")</f>
-        <v>631</v>
+        <f t="array" ref="I3">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),3),""))</f>
+        <v>690</v>
       </c>
       <c r="J3" s="3" t="str">
-        <f t="array" ref="J3">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),4),"")</f>
-        <v>marcio</v>
+        <f t="array" ref="J3">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A2)),4),""))</f>
+        <v>eduardo</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -802,20 +802,20 @@
         <v>13</v>
       </c>
       <c r="G4" s="3">
-        <f t="array" ref="G4">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),1),"")</f>
-        <v>7</v>
+        <f t="array" ref="G4">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),1),""))</f>
+        <v>4</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f t="array" ref="H4">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),2),"")</f>
-        <v>julho</v>
+        <f t="array" ref="H4">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),2),""))</f>
+        <v>abril</v>
       </c>
       <c r="I4" s="8">
-        <f t="array" ref="I4">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),3),"")</f>
-        <v>684</v>
+        <f t="array" ref="I4">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),3),""))</f>
+        <v>920</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="array" ref="J4">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),4),"")</f>
-        <v>ricardo</v>
+        <f t="array" ref="J4">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A3)),4),""))</f>
+        <v>maria</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -831,21 +831,21 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="str">
-        <f t="array" ref="G5">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),1),"")</f>
-        <v/>
+      <c r="G5" s="3">
+        <f t="array" ref="G5">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),1),""))</f>
+        <v>5</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f t="array" ref="H5">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),2),"")</f>
-        <v/>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f t="array" ref="I5">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),3),"")</f>
-        <v/>
+        <f t="array" ref="H5">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),2),""))</f>
+        <v>maio</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="array" ref="I5">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),3),""))</f>
+        <v>571</v>
       </c>
       <c r="J5" s="3" t="str">
-        <f t="array" ref="J5">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),4),"")</f>
-        <v/>
+        <f t="array" ref="J5">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A4)),4),""))</f>
+        <v>paulo</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -862,19 +862,19 @@
         <v>15</v>
       </c>
       <c r="G6" s="3" t="str">
-        <f t="array" ref="G6">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),1),"")</f>
+        <f t="array" ref="G6">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),1),""))</f>
         <v/>
       </c>
       <c r="H6" s="3" t="str">
-        <f t="array" ref="H6">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),2),"")</f>
+        <f t="array" ref="H6">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),2),""))</f>
         <v/>
       </c>
       <c r="I6" s="8" t="str">
-        <f t="array" ref="I6">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),3),"")</f>
+        <f t="array" ref="I6">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),3),""))</f>
         <v/>
       </c>
       <c r="J6" s="3" t="str">
-        <f t="array" ref="J6">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),4),"")</f>
+        <f t="array" ref="J6">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A5)),4),""))</f>
         <v/>
       </c>
     </row>
@@ -892,19 +892,19 @@
         <v>16</v>
       </c>
       <c r="G7" s="3" t="str">
-        <f t="array" ref="G7">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),1),"")</f>
+        <f t="array" ref="G7">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),1),""))</f>
         <v/>
       </c>
       <c r="H7" s="3" t="str">
-        <f t="array" ref="H7">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),2),"")</f>
+        <f t="array" ref="H7">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),2),""))</f>
         <v/>
       </c>
       <c r="I7" s="8" t="str">
-        <f t="array" ref="I7">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),3),"")</f>
+        <f t="array" ref="I7">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),3),""))</f>
         <v/>
       </c>
       <c r="J7" s="3" t="str">
-        <f t="array" ref="J7">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),4),"")</f>
+        <f t="array" ref="J7">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A6)),4),""))</f>
         <v/>
       </c>
     </row>
@@ -922,19 +922,19 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="str">
-        <f t="array" ref="G8">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),1),"")</f>
+        <f t="array" ref="G8">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),1),""))</f>
         <v/>
       </c>
       <c r="H8" s="3" t="str">
-        <f t="array" ref="H8">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),2),"")</f>
+        <f t="array" ref="H8">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),2),""))</f>
         <v/>
       </c>
       <c r="I8" s="8" t="str">
-        <f t="array" ref="I8">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),3),"")</f>
+        <f t="array" ref="I8">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),3),""))</f>
         <v/>
       </c>
       <c r="J8" s="3" t="str">
-        <f t="array" ref="J8">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),4),"")</f>
+        <f t="array" ref="J8">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A7)),4),""))</f>
         <v/>
       </c>
     </row>
@@ -952,19 +952,19 @@
         <v>18</v>
       </c>
       <c r="G9" s="3" t="str">
-        <f t="array" ref="G9">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),1),"")</f>
+        <f t="array" ref="G9">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),1),""))</f>
         <v/>
       </c>
       <c r="H9" s="3" t="str">
-        <f t="array" ref="H9">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),2),"")</f>
+        <f t="array" ref="H9">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),2),""))</f>
         <v/>
       </c>
       <c r="I9" s="8" t="str">
-        <f t="array" ref="I9">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),3),"")</f>
+        <f t="array" ref="I9">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),3),""))</f>
         <v/>
       </c>
       <c r="J9" s="3" t="str">
-        <f t="array" ref="J9">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),4),"")</f>
+        <f t="array" ref="J9">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A8)),4),""))</f>
         <v/>
       </c>
     </row>
@@ -982,23 +982,23 @@
         <v>19</v>
       </c>
       <c r="G10" s="3" t="str">
-        <f t="array" ref="G10">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),1),"")</f>
+        <f t="array" ref="G10">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),1),""))</f>
         <v/>
       </c>
       <c r="H10" s="3" t="str">
-        <f t="array" ref="H10">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),2),"")</f>
+        <f t="array" ref="H10">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),2),""))</f>
         <v/>
       </c>
       <c r="I10" s="8" t="str">
-        <f t="array" ref="I10">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),3),"")</f>
+        <f t="array" ref="I10">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),3),""))</f>
         <v/>
       </c>
       <c r="J10" s="3" t="str">
-        <f t="array" ref="J10">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),4),"")</f>
+        <f t="array" ref="J10">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A9)),4),""))</f>
         <v/>
       </c>
       <c r="O10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1015,23 +1015,23 @@
         <v>20</v>
       </c>
       <c r="G11" s="3" t="str">
-        <f t="array" ref="G11">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),1),"")</f>
+        <f t="array" ref="G11">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),1),""))</f>
         <v/>
       </c>
       <c r="H11" s="3" t="str">
-        <f t="array" ref="H11">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),2),"")</f>
+        <f t="array" ref="H11">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),2),""))</f>
         <v/>
       </c>
       <c r="I11" s="8" t="str">
-        <f t="array" ref="I11">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),3),"")</f>
+        <f t="array" ref="I11">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),3),""))</f>
         <v/>
       </c>
       <c r="J11" s="3" t="str">
-        <f t="array" ref="J11">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),4),"")</f>
+        <f t="array" ref="J11">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A10)),4),""))</f>
         <v/>
       </c>
       <c r="O11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1048,23 +1048,23 @@
         <v>21</v>
       </c>
       <c r="G12" s="3" t="str">
-        <f t="array" ref="G12">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),1),"")</f>
+        <f t="array" ref="G12">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),1),""))</f>
         <v/>
       </c>
       <c r="H12" s="3" t="str">
-        <f t="array" ref="H12">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),2),"")</f>
+        <f t="array" ref="H12">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),2),""))</f>
         <v/>
       </c>
       <c r="I12" s="8" t="str">
-        <f t="array" ref="I12">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),3),"")</f>
+        <f t="array" ref="I12">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),3),""))</f>
         <v/>
       </c>
       <c r="J12" s="3" t="str">
-        <f t="array" ref="J12">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),4),"")</f>
+        <f t="array" ref="J12">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A11)),4),""))</f>
         <v/>
       </c>
       <c r="O12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1072,37 +1072,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>207</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="str">
-        <f t="array" ref="G13">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),1),"")</f>
+        <f t="array" ref="G13">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),1),""))</f>
         <v/>
       </c>
       <c r="H13" s="3" t="str">
-        <f t="array" ref="H13">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),2),"")</f>
+        <f t="array" ref="H13">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),2),""))</f>
         <v/>
       </c>
       <c r="I13" s="8" t="str">
-        <f t="array" ref="I13">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),3),"")</f>
+        <f t="array" ref="I13">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),3),""))</f>
         <v/>
       </c>
       <c r="J13" s="3" t="str">
-        <f t="array" ref="J13">IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),4),"")</f>
+        <f t="array" ref="J13">IF($N$1="","",IFERROR(INDEX($A$2:$D$13,SMALL(IF(ISNUMBER(SEARCH($N$1,INDEX($A$2:$D$13,,MATCH($M$1,$A$1:$D$1,0)))),ROW($A$2:$A$13)-ROW($A$2)+1,""),ROW(A12)),4),""))</f>
         <v/>
       </c>
       <c r="O13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1125,8 +1125,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId3" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" listFillRange="Planilha3!O10:O13" r:id="rId4">
+        <control shapeId="3074" r:id="rId3" name="TextBox1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>548640</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>53340</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>137160</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId3" name="TextBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId5" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" listFillRange="Planilha3!O10:O13" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -1145,32 +1170,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId3" name="ComboBox1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId5" name="TextBox1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>548640</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>53340</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>137160</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId5" name="TextBox1"/>
+        <control shapeId="3077" r:id="rId5" name="ComboBox1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
